--- a/UploadFiles/Events.xlsx
+++ b/UploadFiles/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsoneducationinc-my.sharepoint.com/personal/prasannarenganathan_mangalanathan_pearson_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104825499D4CFE5BDE5901" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC384837-7E17-4C24-80B6-9A8ECB422646}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104825499D4CFE5BDE5901" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A89234D-0CA5-46A8-94C1-825E0FC7D023}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -88,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,6 +432,72 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>46054</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>46067</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>46082</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>46097</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>46111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>46084</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
